--- a/resources/Lecture 06 - P4.xlsx
+++ b/resources/Lecture 06 - P4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1230" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF510E84-37F9-4AD3-B2F4-9FE194946F10}"/>
+  <xr:revisionPtr revIDLastSave="1231" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC460F2-4B50-4E13-AE37-4E475DD12D8C}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="3675" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Decision Variable</t>
-  </si>
-  <si>
-    <t>Slack</t>
   </si>
 </sst>
 </file>
@@ -179,6 +176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -455,12 +456,12 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -468,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -476,7 +477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -484,12 +485,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -498,23 +499,20 @@
         <v>132500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>5000 - 20 * B3</f>
         <v>1000</v>
@@ -522,12 +520,8 @@
       <c r="B11" s="1">
         <v>1000</v>
       </c>
-      <c r="C11" s="1">
-        <f>A11 - B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>6000 - 0.05 * (B4 ^ 2)</f>
         <v>4875</v>
@@ -535,12 +529,8 @@
       <c r="B12" s="1">
         <v>1500</v>
       </c>
-      <c r="C12" s="1">
-        <f>A12 - B12</f>
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>B3</f>
         <v>200</v>
@@ -548,22 +538,14 @@
       <c r="B13" s="1">
         <v>150</v>
       </c>
-      <c r="C13" s="1">
-        <f>A13 - B13</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>B4</f>
         <v>150</v>
       </c>
       <c r="B14" s="1">
         <v>150</v>
-      </c>
-      <c r="C14" s="1">
-        <f>A14 - B14</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
